--- a/backend/DATA EXPORT  sampai .xlsx
+++ b/backend/DATA EXPORT  sampai .xlsx
@@ -417,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -428,6 +428,17 @@
     <col min="4" max="4" width="20.83203125" customWidth="1"/>
     <col min="5" max="5" width="25.83203125" customWidth="1"/>
     <col min="6" max="6" width="25.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" customWidth="1"/>
+    <col min="9" max="9" width="40.83203125" customWidth="1"/>
+    <col min="10" max="10" width="40.83203125" customWidth="1"/>
+    <col min="11" max="11" width="40.83203125" customWidth="1"/>
+    <col min="12" max="12" width="40.83203125" customWidth="1"/>
+    <col min="13" max="13" width="40.83203125" customWidth="1"/>
+    <col min="14" max="14" width="40.83203125" customWidth="1"/>
+    <col min="15" max="15" width="40.83203125" customWidth="1"/>
+    <col min="16" max="16" width="40.83203125" customWidth="1"/>
+    <col min="17" max="17" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20" customHeight="1">
@@ -458,6 +469,36 @@
       </c>
       <c r="F4" s="3" t="str">
         <v>Tempat Pelaksanaan</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <v>Nomer Ketua Umum</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <v>Dana ACC</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <v>Keterangan Wakil Dekan III</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <v>Keterangan Pengajuan Dana</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <v>Keterangan Surat Pertanggung Jawaban</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <v>Keterangan Akademik</v>
+      </c>
+      <c r="M4" s="3" t="str">
+        <v>Proposal</v>
+      </c>
+      <c r="N4" s="3" t="str">
+        <v>Surat Pertanggung Jawaban</v>
+      </c>
+      <c r="O4" s="3" t="str">
+        <v>Berkas Surat Pertanggung Jawaban</v>
+      </c>
+      <c r="P4" s="3" t="str">
+        <v>Laporan Pertanggung Jawaban</v>
       </c>
     </row>
   </sheetData>
@@ -466,7 +507,7 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P4"/>
   </ignoredErrors>
 </worksheet>
 </file>